--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77902F12-9578-4D8E-A12D-1387F9E8F06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DC7CE-45D7-41C3-BD4D-1EF87B6AB07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DC7CE-45D7-41C3-BD4D-1EF87B6AB07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BAD593-08A6-4601-A299-3CE366E397E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BAD593-08A6-4601-A299-3CE366E397E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06BA90-5DAF-46B0-9E11-4F1A79F05BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06BA90-5DAF-46B0-9E11-4F1A79F05BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD81CC-6F37-4630-BDB7-D8529CBDD969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD81CC-6F37-4630-BDB7-D8529CBDD969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EE55B-4814-4F4A-9885-1EF0481E2674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
